--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3578.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3578.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.02436152986692</v>
+        <v>5.502985000610352</v>
       </c>
       <c r="B1">
-        <v>1.50822531146868</v>
+        <v>2.737139701843262</v>
       </c>
       <c r="C1">
-        <v>3.080367766500993</v>
+        <v>1.806487083435059</v>
       </c>
       <c r="D1">
-        <v>4.895046742429151</v>
+        <v>1.568248152732849</v>
       </c>
       <c r="E1">
-        <v>1.458526348081924</v>
+        <v>1.538068294525146</v>
       </c>
     </row>
   </sheetData>
